--- a/data/income_statement/2digits/size/18_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/18_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>18-Printing and reproduction of recorded media</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>18-Printing and reproduction of recorded media</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,659 +841,744 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>758658.89586</v>
+        <v>836613.15629</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>794145.9947899999</v>
+        <v>876279.4328499999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>840995.63213</v>
+        <v>923957.5004700001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>813307.7359600001</v>
+        <v>901284.12048</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>839077.09715</v>
+        <v>931924.45698</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>838677.2075499999</v>
+        <v>945545.1463399999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>819217.9652100001</v>
+        <v>949682.97208</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>838360.67208</v>
+        <v>989667.5644599999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>791997.48709</v>
+        <v>952517.22361</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2075173.6375</v>
+        <v>2286645.04739</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2245016.73737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2567829.7758</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2623973.832</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>738054.2464299999</v>
+        <v>812759.02805</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>767145.7121</v>
+        <v>845660.65975</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>817222.87188</v>
+        <v>898107.90011</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>790426.7300099999</v>
+        <v>875495.2881900001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>816772.0918299999</v>
+        <v>907620.86089</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>819922.0289500001</v>
+        <v>923818.54151</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>795900.3065900001</v>
+        <v>923114.37765</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>817983.7191799999</v>
+        <v>964334.65225</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>767894.70442</v>
+        <v>921180.75053</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1987958.85558</v>
+        <v>2183680.78199</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2129684.63368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2442793.03517</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2431612.347</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>11896.64385</v>
+        <v>12714.32021</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>12358.31832</v>
+        <v>13769.51424</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>10740.12986</v>
+        <v>11988.3683</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>10182.88721</v>
+        <v>11219.34922</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>13053.05542</v>
+        <v>13805.28801</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>10676.68627</v>
+        <v>11780.38186</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>16830.29374</v>
+        <v>18351.2971</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>11076.48937</v>
+        <v>13188.41094</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>15645.71732</v>
+        <v>18005.93972</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>65518.71517</v>
+        <v>75007.55295999999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>85164.58381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>88349.08968999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>155324.42</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>8708.005580000001</v>
+        <v>11139.80803</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>14641.96437</v>
+        <v>16849.25886</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>13032.63039</v>
+        <v>13861.23206</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>12698.11874</v>
+        <v>14569.48307</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>9251.9499</v>
+        <v>10498.30808</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>8078.49233</v>
+        <v>9946.222969999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6487.36488</v>
+        <v>8217.297329999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9300.463529999999</v>
+        <v>12144.50127</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>8457.065350000001</v>
+        <v>13330.53336</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>21696.06675</v>
+        <v>27956.71244</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>30167.51988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36687.65094000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>37037.065</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>10974.81301</v>
+        <v>12459.35843</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>12248.31782</v>
+        <v>13971.80997</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>10347.14487</v>
+        <v>11870.4973</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>7849.277349999999</v>
+        <v>9840.746300000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>12774.86198</v>
+        <v>14065.00902</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>9592.937260000001</v>
+        <v>11959.99112</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9940.521419999999</v>
+        <v>12563.44822</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>10578.74446</v>
+        <v>12592.67103</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>10696.1002</v>
+        <v>12950.89267</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>27005.55554</v>
+        <v>30608.8037</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>21338.79099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>23087.95523</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>73689.113</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>9826.783099999999</v>
+        <v>10570.76964</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>11553.36813</v>
+        <v>13023.08992</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>9707.129150000001</v>
+        <v>10924.06887</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>7145.64273</v>
+        <v>8925.687280000002</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12129.43305</v>
+        <v>13133.51261</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>9077.75272</v>
+        <v>11253.33733</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9212.669129999998</v>
+        <v>11428.08362</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9672.830609999999</v>
+        <v>11392.12447</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>10070.93144</v>
+        <v>11582.54974</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>22363.25262</v>
+        <v>25732.75471</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>18946.14889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20568.19596</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>67375.561</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1050.16732</v>
+        <v>1769.04033</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>615.87406</v>
+        <v>825.7814</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>461.52466</v>
+        <v>752.26796</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>544.9776999999999</v>
+        <v>750.88311</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>440.52635</v>
+        <v>711.9164099999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>406.73158</v>
+        <v>583.51111</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>394.6335</v>
+        <v>762.4430600000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>815.19714</v>
+        <v>1070.80903</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>538.6825799999999</v>
+        <v>1214.98055</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4191.75249</v>
+        <v>4312.40701</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>955.14854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1035.45575</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4680.112</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>97.86259</v>
+        <v>119.54846</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>79.07563</v>
+        <v>122.93865</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>178.49106</v>
+        <v>194.16047</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>158.65692</v>
+        <v>164.17591</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>204.90258</v>
+        <v>219.58</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>108.45296</v>
+        <v>123.14268</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>333.21879</v>
+        <v>372.92154</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>90.71671000000001</v>
+        <v>129.73753</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>86.48617999999999</v>
+        <v>153.36238</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>450.55043</v>
+        <v>563.64198</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1437.49356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1484.30352</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1633.44</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>747684.08285</v>
+        <v>824153.79786</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>781897.67697</v>
+        <v>862307.62288</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>830648.48726</v>
+        <v>912087.0031699999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>805458.45861</v>
+        <v>891443.37418</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>826302.2351700001</v>
+        <v>917859.44796</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>829084.2702900001</v>
+        <v>933585.1552200001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>809277.4437899999</v>
+        <v>937119.52386</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>827781.9276199999</v>
+        <v>977074.8934300001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>781301.38689</v>
+        <v>939566.3309399999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2048168.08196</v>
+        <v>2256036.24369</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2223677.94638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2544741.82057</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2550284.719</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>599249.9463000001</v>
+        <v>659465.56649</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>609285.4476899999</v>
+        <v>667349.0179799999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>650426.3022900001</v>
+        <v>710634.8787199999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>617147.36864</v>
+        <v>679936.5505</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>646552.6375</v>
+        <v>715135.2035600001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>651997.7345500001</v>
+        <v>731776.86233</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>639479.53071</v>
+        <v>740022.8421600001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>664921.02223</v>
+        <v>776840.6735499999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>614144.0418100001</v>
+        <v>729485.51823</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1683076.89568</v>
+        <v>1845651.81286</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1841313.29973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2119980.08993</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2116374.374</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>214676.47326</v>
+        <v>246439.48488</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>244627.62203</v>
+        <v>272967.1028599999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>253719.37085</v>
+        <v>282108.01657</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>251006.08109</v>
+        <v>282802.47692</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>238026.48863</v>
+        <v>272348.9397</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>238829.5063</v>
+        <v>281587.99869</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>231522.57048</v>
+        <v>281978.0736</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>197183.354</v>
+        <v>259632.59141</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>190855.46863</v>
+        <v>249718.86611</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>577274.27065</v>
+        <v>668524.09214</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>673503.3036399999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>763038.44562</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>751641.14</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>259740.80441</v>
+        <v>274491.39056</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>209006.23165</v>
+        <v>225432.93162</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>246375.01997</v>
+        <v>266514.836</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>228732.44141</v>
+        <v>243931.07912</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>273594.33681</v>
+        <v>294755.11826</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>262770.14244</v>
+        <v>283100.08304</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>278842.1496600001</v>
+        <v>307083.72475</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>320460.95847</v>
+        <v>343276.60152</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>283715.37534</v>
+        <v>312000.55002</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>788224.8787100001</v>
+        <v>834817.525</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>807893.26407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>950889.1961400001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>886112.999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>123800.50787</v>
+        <v>137456.11286</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>154159.52995</v>
+        <v>167308.43007</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>149473.29877</v>
+        <v>160990.86282</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>134319.94965</v>
+        <v>150077.31131</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>133420.60078</v>
+        <v>146127.54462</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>149431.57428</v>
+        <v>165878.30107</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>127724.10107</v>
+        <v>149113.3208</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>145182.3201</v>
+        <v>168774.06977</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>138757.53823</v>
+        <v>166630.93384</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>313432.07005</v>
+        <v>337464.07416</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>354068.39152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>399047.39634</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>472045.089</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1032.16076</v>
+        <v>1078.57819</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1492.06406</v>
+        <v>1640.55343</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>858.6126999999999</v>
+        <v>1021.16333</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3088.89649</v>
+        <v>3125.68315</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1511.21128</v>
+        <v>1903.60098</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>966.51153</v>
+        <v>1210.47953</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1390.7095</v>
+        <v>1847.72301</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2094.38966</v>
+        <v>5157.410849999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>815.6596099999999</v>
+        <v>1135.16826</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>4145.67627</v>
+        <v>4846.12156</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5848.3405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7005.05183</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>6575.146</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>148434.13655</v>
+        <v>164688.23137</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>172612.22928</v>
+        <v>194958.6049</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>180222.18497</v>
+        <v>201452.12445</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>188311.08997</v>
+        <v>211506.82368</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>179749.59767</v>
+        <v>202724.2444</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>177086.53574</v>
+        <v>201808.29289</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>169797.91308</v>
+        <v>197096.6817</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>162860.90539</v>
+        <v>200234.21988</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>167157.34508</v>
+        <v>210080.81271</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>365091.18628</v>
+        <v>410384.43083</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>382364.64665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>424761.73064</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>433910.345</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>119786.45579</v>
+        <v>137478.76915</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>138444.87019</v>
+        <v>156994.16132</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>149905.05277</v>
+        <v>167912.70669</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>157176.17124</v>
+        <v>177869.45407</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>151962.29703</v>
+        <v>175322.93651</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>146133.77892</v>
+        <v>170732.06192</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>146866.14774</v>
+        <v>176302.72031</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>150529.31156</v>
+        <v>186454.95524</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>148845.8127</v>
+        <v>189858.45916</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>299511.4709600001</v>
+        <v>342055.49069</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>324331.92733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>369763.7382199999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>362482.19</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>166.34132</v>
+        <v>170.70932</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>1238.49529</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>189.46663</v>
+        <v>310.09766</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>325.83194</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>650.32005</v>
+        <v>651.98486</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>146.55003</v>
+        <v>147.00413</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>208.89501</v>
+        <v>210.64501</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>44.51388</v>
@@ -1601,172 +1587,197 @@
         <v>112.5236</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>361.81769</v>
+        <v>369.72309</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1481.71003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1481.74603</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>271.357</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>15215.15308</v>
+        <v>17125.28904</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>21162.23073</v>
+        <v>24026.32572</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>17253.53927</v>
+        <v>19160.36496</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>17563.06209</v>
+        <v>20002.47099</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>21488.68049</v>
+        <v>24633.89699</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>17980.29925</v>
+        <v>20919.72079</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>21609.50915</v>
+        <v>24873.70729</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>19670.94092</v>
+        <v>25314.9225</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>19031.36605</v>
+        <v>24356.0138</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>49994.20761999999</v>
+        <v>56253.20258</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>55237.3276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>63560.06554</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>55465.396</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>104404.96139</v>
+        <v>120182.77079</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>116044.14417</v>
+        <v>131729.34031</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>132462.04687</v>
+        <v>148442.24407</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>139287.27721</v>
+        <v>157541.15114</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>129823.29649</v>
+        <v>150037.05466</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>128006.92964</v>
+        <v>149665.337</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>125047.74358</v>
+        <v>151218.36801</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>130813.85676</v>
+        <v>161095.51886</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>129701.92305</v>
+        <v>165389.92176</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>249155.44565</v>
+        <v>285432.56502</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>267612.8897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>304721.92665</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>306745.437</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>28647.68076</v>
+        <v>27209.46222</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>34167.35909</v>
+        <v>37964.44358</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>30317.1322</v>
+        <v>33539.41776</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>31134.91873</v>
+        <v>33637.36961</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>27787.30064</v>
+        <v>27401.30789</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>30952.75682</v>
+        <v>31076.23097</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>22931.76534</v>
+        <v>20793.96139</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>12331.59383</v>
+        <v>13779.26464</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>18311.53238</v>
+        <v>20222.35355</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>65579.71532</v>
+        <v>68328.94014000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>58032.71932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>54997.99242</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>71428.155</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2230.65505</v>
+        <v>5392.7612</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2705.95485</v>
+        <v>5928.26803</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3577.64022</v>
+        <v>8663.775099999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>4327.20104</v>
+        <v>9559.90079</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3812.19405</v>
+        <v>10547.90306</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2847.57808</v>
+        <v>15869.45925</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5243.324549999999</v>
+        <v>15911.47956</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4546.063069999999</v>
+        <v>15056.25379</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>7261.373689999999</v>
+        <v>16802.55364</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>18208.9304</v>
+        <v>36119.29487</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>14680.27156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>30347.69916</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>36801.568</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>47.6339</v>
@@ -1775,37 +1786,42 @@
         <v>16.85928</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>7.49219</v>
+        <v>146.78272</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>13.97878</v>
+        <v>465.19087</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>35.93323</v>
+        <v>508.86194</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>32.24675</v>
+        <v>1320.1899</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>26.76499</v>
+        <v>1898.23247</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>26.05973</v>
+        <v>3177.2174</v>
       </c>
       <c r="K26" s="48" t="n">
+        <v>4070.28998</v>
+      </c>
+      <c r="L26" s="48" t="n">
+        <v>126.59509</v>
+      </c>
+      <c r="M26" s="48" t="n">
+        <v>47.15307</v>
+      </c>
+      <c r="N26" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="L26" s="48" t="n">
-        <v>126.45529</v>
-      </c>
-      <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>4.05651</v>
@@ -1840,53 +1856,63 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>496.79884</v>
+        <v>1025.13338</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>542.2294499999999</v>
+        <v>727.5185299999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>660.39652</v>
+        <v>961.0172100000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>769.82337</v>
+        <v>1209.39523</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>595.67197</v>
+        <v>1512.25684</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>828.6340600000001</v>
+        <v>3525.83408</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>877.1730600000001</v>
+        <v>2061.34904</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2286.97459</v>
+        <v>3465.56154</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>868.2694300000001</v>
+        <v>2266.89726</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2701.79004</v>
+        <v>4432.085140000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3029.44015</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>7446.25072</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3980.385</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>125.75249</v>
+        <v>126.02129</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>143.86866</v>
@@ -1895,151 +1921,171 @@
         <v>40.38111</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>42.33189</v>
+        <v>110.95929</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>43.07511</v>
+        <v>116.95391</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>98.15539</v>
+        <v>255.10992</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>34.81993</v>
+        <v>134.14383</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>24.40734</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1891.97796</v>
+        <v>1914.76179</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>36.56847</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>65.97153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>67.26646000000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>712.114</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>48.22042</v>
+        <v>614.45842</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>74.69104000000002</v>
+        <v>910.49039</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>157.97951</v>
+        <v>1506.48587</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>66.85742</v>
+        <v>1160.88752</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>46.14736</v>
+        <v>1214.98896</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>167.48034</v>
+        <v>1537.31202</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>0</v>
+        <v>1253.788</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>1385.6142</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1525.37407</v>
+        <v>2950.78673</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1917.38236</v>
+        <v>1931.41898</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>151.91654</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1636.87904</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1809.248</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>50.86442</v>
+        <v>52.81776</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>67.04164999999999</v>
+        <v>89.99964</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>34.18993</v>
+        <v>44.73578</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>119.7738</v>
+        <v>139.08782</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>240.05559</v>
+        <v>247.20651</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>25.62457</v>
+        <v>600.03862</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>32.64665</v>
+        <v>83.68300000000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>25.72793</v>
+        <v>26.65258</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>47.56029</v>
+        <v>215.57805</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>175.53043</v>
+        <v>795.0529399999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>411.57802</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>479.30945</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>614.067</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>799.327</v>
+        <v>1957.63815</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1176.0684</v>
+        <v>2348.83182</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1406.38848</v>
+        <v>2796.41197</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1120.90362</v>
+        <v>2082.35451</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>819.7319100000001</v>
+        <v>2320.51182</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>542.0331199999999</v>
+        <v>2533.48951</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1440.98578</v>
+        <v>3551.76424</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>662.9265</v>
+        <v>1978.02833</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1372.28125</v>
+        <v>2181.75731</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>9608.860490000001</v>
+        <v>21138.19042</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3437.54403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10059.59357</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>24825.151</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>24.51736</v>
@@ -2060,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2.58547</v>
+        <v>98.17178</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>0.2</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>15.51524</v>
@@ -2090,10 +2141,10 @@
         <v>1.2</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>52.00126</v>
+        <v>84.60702999999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>32.71525</v>
+        <v>63.9642</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>0.38277</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0</v>
+        <v>7.16521</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0.07005</v>
@@ -2113,170 +2164,195 @@
       <c r="M34" s="48" t="n">
         <v>0.0002</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>3.571</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>617.96887</v>
+        <v>1524.96919</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>677.19624</v>
+        <v>1682.69958</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1266.05148</v>
+        <v>3163.19944</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2141.5225</v>
+        <v>4307.41012</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1993.66363</v>
+        <v>4557.95888</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1153.40385</v>
+        <v>6097.4852</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2828.34863</v>
+        <v>6830.34716</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1519.38421</v>
+        <v>4998.18963</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1555.91069</v>
+        <v>3195.31731</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3615.017</v>
+        <v>7632.05751</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>7583.82109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10611.24665</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4856.863</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3371.36255</v>
+        <v>5882.12567</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3157.30597</v>
+        <v>5091.94038</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4044.71032</v>
+        <v>5859.295590000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4063.97279</v>
+        <v>5960.20139</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3375.53801</v>
+        <v>5920.78418</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2790.73047</v>
+        <v>5989.12875</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3071.37397</v>
+        <v>6585.43306</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1808.22406</v>
+        <v>3470.42486</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7975.88293</v>
+        <v>9645.35183</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13671.7217</v>
+        <v>29143.3003</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8657.1353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>28776.74544</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>24951.357</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>775.3781700000001</v>
+        <v>845.3616500000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>251.41418</v>
+        <v>252.51926</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>325.42023</v>
+        <v>336.67348</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>338.41144</v>
+        <v>342.4611200000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>305.85551</v>
+        <v>315.38076</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>245.27416</v>
+        <v>263.43895</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>234.87545</v>
+        <v>255.70685</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>197.57417</v>
+        <v>211.94214</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2640.09873</v>
+        <v>2665.60293</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>348.6004</v>
+        <v>395.87897</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>298.17699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>348.43674</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1337.383</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>730.31943</v>
+        <v>1583.55838</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>212.16092</v>
+        <v>581.2356</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>333.78134</v>
+        <v>866.91229</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>758.55961</v>
+        <v>1084.28386</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>794.51112</v>
+        <v>1043.86922</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>530.0295600000001</v>
+        <v>840.71614</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>717.8606500000001</v>
+        <v>781.01724</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>185.98921</v>
+        <v>335.92899</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2673.44491</v>
+        <v>2819.68747</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1957.88223</v>
+        <v>2754.04862</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>406.66945</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>12329.98947</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>903.706</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>27.70489</v>
+        <v>39.06366999999999</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>9.30786</v>
@@ -2291,10 +2367,10 @@
         <v>6.725890000000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0</v>
+        <v>10.05</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>17.35729</v>
+        <v>17.65729</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>3.48556</v>
@@ -2303,61 +2379,71 @@
         <v>0.00337</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0</v>
+        <v>0.71717</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>146.19449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>152.19449</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>14.986</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1014.41009</v>
+        <v>2001.74073</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1036.89935</v>
+        <v>2227.87664</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2061.80237</v>
+        <v>3165.08232</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>916.4548599999999</v>
+        <v>1769.99174</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>701.84863</v>
+        <v>2580.79024</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>600.11609</v>
+        <v>2292.59664</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1450.39688</v>
+        <v>4686.47546</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>527.4100999999999</v>
+        <v>1013.44452</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>942.11276</v>
+        <v>1881.34494</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>8524.09281</v>
+        <v>21724.81842</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2638.8499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>8585.98273</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>12601.651</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>15.9767</v>
+        <v>30.83661</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0.25712</v>
+        <v>0.2908</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>72.63635000000001</v>
@@ -2372,7 +2458,7 @@
         <v>9.4092</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0.9396100000000001</v>
+        <v>1.19123</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>2.58547</v>
@@ -2386,32 +2472,37 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>15.41453</v>
+        <v>20.30952</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>171.88932</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>1e-05</v>
+        <v>0.15002</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>24.53546</v>
+        <v>56.70423</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>4.241</v>
+        <v>88.50960000000001</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>1.516</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0.1007</v>
@@ -2425,251 +2516,286 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>792.15874</v>
+        <v>1361.25511</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1475.37722</v>
+        <v>1848.8209</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1229.57271</v>
+        <v>1396.34382</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1919.47939</v>
+        <v>2600.22841</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1559.34418</v>
+        <v>1882.49679</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1405.90146</v>
+        <v>2572.91782</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>649.94409</v>
+        <v>841.8689899999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>891.07885</v>
+        <v>1902.93748</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1720.22316</v>
+        <v>2278.71312</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2841.143</v>
+        <v>4267.83386</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5167.24447</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>7360.14201</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>10093.068</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>7029.939729999999</v>
+        <v>10980.29776</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5728.59623</v>
+        <v>8419.691949999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>7272.02778</v>
+        <v>10491.00816</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>6991.91083</v>
+        <v>9698.182510000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7396.458860000001</v>
+        <v>10148.02582</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5799.66075</v>
+        <v>10505.60649</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6772.099310000001</v>
+        <v>11079.73923</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5646.836670000001</v>
+        <v>9899.614740000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>5456.25955</v>
+        <v>9796.89688</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>19976.8773</v>
+        <v>32820.23464</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>19086.07244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>82611.44930000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>25893.244</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>6464.197319999999</v>
+        <v>10291.50317</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5307.820860000001</v>
+        <v>7921.815199999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6211.47534</v>
+        <v>9427.827080000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6611.621480000001</v>
+        <v>9298.40202</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>6916.63797</v>
+        <v>9558.586519999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>5547.79314</v>
+        <v>10216.76228</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6624.51377</v>
+        <v>10736.87264</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5567.10815</v>
+        <v>9664.517669999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5320.997530000001</v>
+        <v>9547.62658</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>19528.54859</v>
+        <v>32219.6209</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>18782.67372</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>82283.52854</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>24847.461</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>565.7424100000001</v>
+        <v>688.79459</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>420.77537</v>
+        <v>497.87675</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1060.55244</v>
+        <v>1063.18108</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>380.28935</v>
+        <v>399.78049</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>479.82089</v>
+        <v>589.4393</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>251.86761</v>
+        <v>288.84421</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>147.58554</v>
+        <v>342.86659</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>79.72852</v>
+        <v>235.09707</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>135.26202</v>
+        <v>249.2703</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>448.32871</v>
+        <v>600.61374</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>303.39872</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>327.92076</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1045.783</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>20477.03353</v>
+        <v>15739.79999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>27987.41174</v>
+        <v>30381.07928</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>22578.03432</v>
+        <v>25852.88911</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>24406.23615</v>
+        <v>27538.8865</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>20827.49782</v>
+        <v>21880.40095</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>25209.94368</v>
+        <v>30450.95497999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>18331.61661</v>
+        <v>19040.26866</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>9422.596170000001</v>
+        <v>15465.47883</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>12140.76359</v>
+        <v>17582.65848</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>50140.04672</v>
+        <v>42484.70007</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>44969.78314</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-26042.50316</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>57385.122</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4578.100030000001</v>
+        <v>5808.8095</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5271.419599999999</v>
+        <v>11131.16673</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3826.80426</v>
+        <v>5998.105439999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3219.91793</v>
+        <v>8531.52519</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3821.6991</v>
+        <v>9692.689</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3313.65949</v>
+        <v>7940.690310000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3433.38372</v>
+        <v>13529.1886</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5476.816150000001</v>
+        <v>11154.57303</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5953.521809999999</v>
+        <v>11395.72099</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>12355.18539</v>
+        <v>15406.35376</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>14433.80968</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>34203.78881000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>19836.661</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>85.78814999999999</v>
+        <v>91.04893</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>11.36907</v>
+        <v>46.36907</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>81.18416000000001</v>
@@ -2681,337 +2807,380 @@
         <v>26.2572</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>41.34789</v>
+        <v>69.00233</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>9.992760000000001</v>
+        <v>9.9976</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>100.61781</v>
+        <v>626.1955800000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>29.46349</v>
+        <v>472.2162</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>32.89594</v>
+        <v>36.01458</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5.2955</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>8.1905</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>105.699</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4492.31188</v>
+        <v>5717.760569999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5260.05053</v>
+        <v>11084.79766</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3745.6201</v>
+        <v>5916.92128</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3186.95347</v>
+        <v>8498.560730000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3795.4419</v>
+        <v>9666.4318</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3272.3116</v>
+        <v>7871.687980000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3423.39096</v>
+        <v>13519.191</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5376.19834</v>
+        <v>10528.37745</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5924.05832</v>
+        <v>10923.50479</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>12322.28945</v>
+        <v>15370.33918</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>14428.51418</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>34195.59831</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>19730.962</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6649.19015</v>
+        <v>10765.39485</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>8576.74992</v>
+        <v>15085.21523</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>37825.17407</v>
+        <v>51555.78168</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4945.41298</v>
+        <v>9453.368460000002</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5417.60128</v>
+        <v>7774.4454</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>12847.81592</v>
+        <v>28854.58009</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6797.00758</v>
+        <v>9929.1674</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>20924.93341</v>
+        <v>28855.26411</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6541.87349</v>
+        <v>10299.19469</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>28835.35704</v>
+        <v>38951.28933</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>13233.78346</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>23507.47798</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>19280.291</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>105.40785</v>
+        <v>189.73737</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>308.16074</v>
+        <v>675.03801</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>319.53884</v>
+        <v>340.15825</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>111.31677</v>
+        <v>134.12966</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>234.40664</v>
+        <v>636.95407</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>163.51337</v>
+        <v>682.97487</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>501.24766</v>
+        <v>540.09948</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>223.15128</v>
+        <v>250.5125</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>152.85688</v>
+        <v>629.4645899999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>75.44883</v>
+        <v>82.06655000000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>122.05755</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>127.36408</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>400.38</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>555.94963</v>
+        <v>718.9897000000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>366.47115</v>
+        <v>548.31817</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>145.2641</v>
+        <v>154.0399</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>143.50107</v>
+        <v>146.79042</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>145.48172</v>
+        <v>160.8113</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>169.33262</v>
+        <v>213.83061</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>156.30802</v>
+        <v>199.41545</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>121.00995</v>
+        <v>833.96763</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>31.1383</v>
+        <v>185.42758</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>191.06186</v>
+        <v>376.0537</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>383.1181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>533.98285</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>552.2910000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5987.83267</v>
+        <v>9856.66778</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7902.118030000001</v>
+        <v>13861.85905</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>37360.37112999999</v>
+        <v>51061.58353</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4690.59514</v>
+        <v>9172.448380000002</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5037.71292</v>
+        <v>6976.68003</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>12514.96993</v>
+        <v>27957.77461</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6139.451899999999</v>
+        <v>9189.652470000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>20580.77218</v>
+        <v>27770.78398</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>6357.878310000001</v>
+        <v>9484.302519999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>28568.84635</v>
+        <v>38493.16908</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>12728.60781</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>22846.13105</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>18327.62</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>18405.94341</v>
+        <v>10783.21464</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>24682.08142</v>
+        <v>26427.03078</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-11420.33549</v>
+        <v>-19704.78713</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>22680.7411</v>
+        <v>26617.04323</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>19231.59564</v>
+        <v>23798.64455</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>15675.78725</v>
+        <v>9537.065199999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>14967.99275</v>
+        <v>22640.28986</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-6025.52109</v>
+        <v>-2235.21225</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>11552.41191</v>
+        <v>18679.18478</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>33659.87507</v>
+        <v>18939.7645</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>46169.80936</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-15346.19233</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>57941.492</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>5861.78728</v>
+        <v>6337.59372</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6941.04538</v>
+        <v>8107.27559</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6858.818300000001</v>
+        <v>7877.89973</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6442.808150000001</v>
+        <v>7471.674389999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6991.58136</v>
+        <v>8099.587260000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6780.26589</v>
+        <v>7971.50717</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5996.07742</v>
+        <v>7460.815090000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>5632.39166</v>
+        <v>7494.12826</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>5491.306320000001</v>
+        <v>7307.39243</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>15768.0184</v>
+        <v>18331.32803</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>16387.17769</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19710.91124</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>23255.385</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>12544.15613</v>
+        <v>4445.62092</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>17741.03604</v>
+        <v>18319.75519</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-18279.15379</v>
+        <v>-27582.68686</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>16237.93295</v>
+        <v>19145.36884</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>12240.01428</v>
+        <v>15699.05729</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>8895.521359999999</v>
+        <v>1565.55803</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>8971.91533</v>
+        <v>15179.47477</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-11657.91275</v>
+        <v>-9729.34051</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>6061.105590000001</v>
+        <v>11371.79235</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>17891.85667</v>
+        <v>608.43647</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>29782.63167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-35057.10357</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>34686.107</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3114</v>
+        <v>3307</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2987</v>
+        <v>3197</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2938</v>
+        <v>3145</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2768</v>
+        <v>3001</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2625</v>
+        <v>2856</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2422</v>
+        <v>2672</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2265</v>
+        <v>2566</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2236</v>
+        <v>2586</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2188</v>
+        <v>2570</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2559</v>
+        <v>2998</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3074</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>